--- a/biology/Médecine/Maurice_Marois/Maurice_Marois.xlsx
+++ b/biology/Médecine/Maurice_Marois/Maurice_Marois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Marois est un médecin français, né le 17 février 1922 à Alger en Algérie et mort le 13 octobre 2004 à Paris à l'âge de 82 ans[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Marois est un médecin français, né le 17 février 1922 à Alger en Algérie et mort le 13 octobre 2004 à Paris à l'âge de 82 ans.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'Ernest Marois, médecin, et de Paulette Marois ; il a un frère cadet, Pierre Marois. En 1956, il épouse Geneviève Goreux, avec qui il a trois enfants.
 Professeur d'Histologie à la faculté de Médecine, Il fut le fondateur de l'Institut de la vie.
@@ -563,7 +577,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille du Combattant volontaire de la Résistance, Croix du Combattant.
 1951 : Prix Janssen de l'Académie nationale de Médecine.
